--- a/examples/models/MachineReadingOuput_model.xlsx
+++ b/examples/models/MachineReadingOuput_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +644,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CD3</t>
+          <t>P16410</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -696,12 +696,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -710,27 +710,19 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr"/>
@@ -751,7 +743,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -771,12 +763,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Q53GL0</t>
+          <t>P19526</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -803,12 +795,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>erk_pf,cd5_pt,tcr_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -817,27 +809,19 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405,PMC4418530</t>
+          <t>PMC3375464</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -858,7 +842,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -883,7 +867,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CD8</t>
+          <t>p38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -910,7 +894,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -920,39 +904,23 @@
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4669187</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -973,7 +941,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -998,7 +966,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P06127</t>
+          <t>Q9UHD2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1025,12 +993,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>akt_pt,mtorc1_pt</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -1039,19 +1007,27 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -1072,7 +1048,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1092,12 +1068,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>Q12778</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1124,41 +1100,49 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>pip3_pt,mtorc2_pf</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>nan,nan</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530</t>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1179,7 +1163,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1204,7 +1188,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P16410</t>
+          <t>Q02750</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1231,7 +1215,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1241,23 +1225,39 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC3625979,PMC4418530</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -1278,7 +1278,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P40313</t>
+          <t>Q9NYM4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1328,20 +1328,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
@@ -1377,7 +1377,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Q9UHD2</t>
+          <t>Q6P9H4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1427,43 +1427,35 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>akt_pf,mtorc1_pt</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
@@ -1484,12 +1476,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>simple-chemical</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1504,12 +1496,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>hmdb</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>UAZ02655</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1536,12 +1528,12 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
@@ -1550,19 +1542,27 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
+          <t>PMC4487994,PMC4487994</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
@@ -1583,12 +1583,12 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>simple-chemical</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>hmdb</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>Q16552</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1633,51 +1633,43 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>pi3_pt</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>cd4_pt,hif1alpha_pt</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994,PMC4418530</t>
+          <t>PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
@@ -1698,7 +1690,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1723,7 +1715,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P01106</t>
+          <t>Q08881</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1748,35 +1740,51 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>akt_pf,pten_pt</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -1797,7 +1805,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1822,7 +1830,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P36507</t>
+          <t>P06127</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1847,20 +1855,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>p38_pf</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>iqgap1_pt</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1868,14 +1876,14 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -1896,7 +1904,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1916,12 +1924,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>UAZ02439</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1946,20 +1954,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -1967,14 +1975,14 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
+          <t>PMC4418530</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
@@ -2047,7 +2055,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>mek_pf,pi3_pt,foxo1_pt,mek1_pt</t>
+          <t>mek_pf,pi_pt,foxo1_pt,mek1_pt</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2059,7 +2067,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3_pt,ck2_pt</t>
+          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi_pt,ck2_pt</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2110,7 +2118,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>foxo3a_pt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2130,12 +2138,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>O43524</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2160,20 +2168,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>tcr_pt,pi3_pt</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>foxo_pf,akt_pt</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>nan,nan</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
@@ -2189,14 +2197,14 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530</t>
+          <t>PMC3375464,PMC4496363</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>foxo3a_pt</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
@@ -2217,7 +2225,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2237,12 +2245,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>P25445</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2269,33 +2277,49 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>tcr_pt,pi_pt</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
@@ -2316,7 +2340,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2336,12 +2360,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>UAZ03334</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2368,7 +2392,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2387,14 +2411,14 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
@@ -2415,7 +2439,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2440,7 +2464,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Q9NYM4</t>
+          <t>P01730</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2467,33 +2491,49 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>akt_pt,tcr_pt,itk_pt,akt_pf,tbk1_pt</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>,,,,,,,,</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>,,,,,,,,</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
@@ -2514,7 +2554,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2539,7 +2579,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P19526</t>
+          <t>P25445</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2566,7 +2606,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2585,14 +2625,14 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>PMC3375464</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr"/>
@@ -2613,7 +2653,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2638,7 +2678,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Q16552</t>
+          <t>P36507</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2669,37 +2709,29 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>cd4_pt,hif1alpha_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr"/>
@@ -2720,7 +2752,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2745,7 +2777,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>UAZ02468</t>
+          <t>UAZ02655</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2772,7 +2804,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2791,14 +2823,14 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -2819,7 +2851,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2839,12 +2871,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Q12778</t>
+          <t>CD3</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2871,49 +2903,41 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
+          <t>PMC5193405,PMC5193405</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -2934,12 +2958,12 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2954,12 +2978,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>p38</t>
+          <t>Q14624</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2986,7 +3010,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3005,14 +3029,14 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC4669187</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
@@ -3033,7 +3057,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>foxo3a_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3058,7 +3082,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>O43524</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3089,37 +3113,29 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>foxo_pf,akt_pf</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4496363</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>foxo3a_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
@@ -3239,7 +3255,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3259,12 +3275,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>P46934</t>
+          <t>P40313</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3289,20 +3305,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>tcr_pt</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -3310,14 +3326,14 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>PMC4418530</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
@@ -3338,12 +3354,12 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>Complex</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3358,12 +3374,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Q6P9H4</t>
+          <t>Q6R327</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3388,8 +3404,16 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -3404,19 +3428,27 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
+          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -3437,7 +3469,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3457,12 +3489,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Q08881</t>
+          <t>UAZ02439</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3487,51 +3519,35 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>foxp3_pt,il2_pt,tcr_pt</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>akt_pt,pten_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
+          <t>PMC4669187</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
@@ -3552,7 +3568,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3572,12 +3588,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Q13153</t>
+          <t>UAZ03334</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3604,49 +3620,33 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bim_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>sipak1_pt,mtor_pt,pi3_pt</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
@@ -3667,7 +3667,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>CD8</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3719,49 +3719,49 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363</t>
+          <t>PMC3375464,PMC4669187</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -3782,7 +3782,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3802,12 +3802,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Q14624</t>
+          <t>Q53GL0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>erk_pf,cd5_pt,tcr_pt</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -3848,19 +3848,27 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
+          <t>PMC5193405,PMC5193405,PMC4418530</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3881,7 +3889,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3906,7 +3914,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>Q16543</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3933,12 +3941,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -3947,19 +3955,27 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC5193405,PMC5193405</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -3980,12 +3996,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -4005,7 +4021,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4032,33 +4048,49 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt,mtorc2_pf</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363,PMC4418530</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
@@ -4079,12 +4111,12 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Complex</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -4104,7 +4136,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Q6R327</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4131,49 +4163,33 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_pt,il2_r_pt</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+          <t>PMC4418530</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr"/>
@@ -4194,7 +4210,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4214,12 +4230,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Q16543</t>
+          <t>UAZ02468</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4246,12 +4262,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -4260,27 +4276,19 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -4301,7 +4309,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4321,12 +4329,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>P01730</t>
+          <t>P42336</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4353,49 +4361,33 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>itk_pt,ck2_pt,tbk1_pt,bcl2l11_gene</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>akt_pf,tcr_pt,itk_pt,akt_pt,tbk1_pt</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>,,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>,,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr"/>
@@ -4416,7 +4408,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4441,7 +4433,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Q02750</t>
+          <t>Q13153</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4468,49 +4460,49 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>sipak1_pt,mtor_pt,pi_pt</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,,,,,,</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,,,,,,</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>PMC3625979,PMC4418530</t>
+          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
@@ -4598,12 +4590,12 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4614,12 +4606,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>pfam</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PF00071</t>
+          <t>P10747</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4644,7 +4636,7 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr"/>
@@ -4670,7 +4662,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4732,7 +4724,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4748,12 +4740,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>uniprot,nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>P01850,P04234,P04235</t>
+          <t>Q9NZQ7</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4778,7 +4770,7 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -4799,7 +4791,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>chk1_pt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4820,7 +4812,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Q9BZS1</t>
+          <t>O14757</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4845,7 +4837,7 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>chk1_pt</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr"/>
@@ -4866,12 +4858,12 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4882,12 +4874,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>interpro</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>P01137</t>
+          <t>Q03403</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4912,7 +4904,7 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
@@ -4933,12 +4925,12 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4949,12 +4941,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FOXO</t>
+          <t>P18621</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4979,7 +4971,7 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
@@ -5000,7 +4992,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5016,12 +5008,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>UAZ03324</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5046,7 +5038,7 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -5067,12 +5059,12 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5088,7 +5080,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>P18621</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5113,7 +5105,7 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
@@ -5134,12 +5126,12 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5150,12 +5142,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot,nan</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>P29323</t>
+          <t>P60568</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5180,7 +5172,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr"/>
@@ -5201,12 +5193,12 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -5217,12 +5209,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>MEK</t>
+          <t>Q92835</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5247,7 +5239,7 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr"/>
@@ -5268,7 +5260,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5289,7 +5281,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Q15118</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5314,7 +5306,7 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr"/>
@@ -5335,12 +5327,12 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5351,12 +5343,12 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>pfam</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>P48023</t>
+          <t>PF00071</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -5381,7 +5373,7 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr"/>
@@ -5402,7 +5394,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5418,12 +5410,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>Q15399</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5448,7 +5440,7 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
@@ -5469,7 +5461,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5485,12 +5477,12 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Q9UN19</t>
+          <t>Q8N122</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5515,7 +5507,7 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr"/>
@@ -5536,12 +5528,12 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5552,12 +5544,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>P04637</t>
+          <t>MEK</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5582,7 +5574,7 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr"/>
@@ -5603,12 +5595,12 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5619,12 +5611,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>interpro</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>P10415</t>
+          <t>P01137</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5649,7 +5641,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr"/>
@@ -5670,7 +5662,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pi3_pt</t>
+          <t>hif1alpha_pt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5686,12 +5678,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>nan,be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -5716,7 +5708,7 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>pi3_pt</t>
+          <t>hif1alpha_pt</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr"/>
@@ -5737,7 +5729,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5753,12 +5745,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uniprot,nan</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Q9NZQ7</t>
+          <t>P01850,P04235,P04234</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -5783,7 +5775,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr"/>
@@ -5804,7 +5796,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5820,12 +5812,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>UAZ03324</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -5850,7 +5842,7 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr"/>
@@ -5871,12 +5863,12 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5892,7 +5884,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Q8N122</t>
+          <t>FOXO</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -5917,7 +5909,7 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr"/>
@@ -5938,7 +5930,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5959,7 +5951,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Q15399</t>
+          <t>P46940</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -5984,7 +5976,7 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr"/>
@@ -6005,7 +5997,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>il2_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6021,12 +6013,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>uniprot,nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>P60568</t>
+          <t>P48023</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -6051,7 +6043,7 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>il2_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr"/>
@@ -6072,7 +6064,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6088,12 +6080,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>P10747</t>
+          <t>P01579</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -6118,7 +6110,7 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
@@ -6139,12 +6131,12 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6155,12 +6147,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Q92835</t>
+          <t>P29323</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6185,7 +6177,7 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr"/>
@@ -6206,7 +6198,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6227,7 +6219,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>P01579</t>
+          <t>Q15118</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6252,7 +6244,7 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr"/>
@@ -6273,7 +6265,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>hif1alpha_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6294,7 +6286,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Q16665</t>
+          <t>Q9UN19</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6319,7 +6311,7 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>hif1alpha_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr"/>
@@ -6340,7 +6332,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>chk1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6361,7 +6353,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>O14757</t>
+          <t>Q9BZS1</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -6386,7 +6378,7 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>chk1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr"/>
@@ -6407,7 +6399,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6428,7 +6420,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>P46940</t>
+          <t>P10415</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -6453,7 +6445,7 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
@@ -6470,73 +6462,6 @@
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>sp_pt</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Q03403</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>sp_pt</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
-      <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/examples/models/MachineReadingOuput_model.xlsx
+++ b/examples/models/MachineReadingOuput_model.xlsx
@@ -644,12 +644,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>Complex</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P16410</t>
+          <t>Q6R327</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -696,33 +696,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr"/>
@@ -743,12 +759,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>simple-chemical</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -763,12 +779,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>hmdb</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>P19526</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -795,12 +811,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>pi3k_pt</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
@@ -809,19 +825,27 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>PMC3375464</t>
+          <t>PMC4487994,PMC4487994</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -842,12 +866,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -862,12 +886,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>p38</t>
+          <t>Q53GL0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -894,12 +918,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>erk_pf,cd5_pt,tcr_pt</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -908,19 +932,27 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC5193405,PMC5193405,PMC4418530</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -941,7 +973,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,7 +998,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Q9UHD2</t>
+          <t>P60484</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -993,41 +1025,49 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>akt_pt,mtorc1_pt</t>
+          <t>mek_pf,pi3k_pt,foxo1_pt,mek1_pt</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>nan,nan,nan</t>
+          <t>nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3k_pt,ck2_pt</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,,,,,,,,,,,,</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,,,,,,,,,,,,</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
+          <t>PMC3949578,PMC3625979,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4496363,PMC4496363,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -1048,12 +1088,12 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1068,12 +1108,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Q12778</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1100,49 +1140,49 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3k_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3k_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>,,</t>
+          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
+          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1163,7 +1203,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1183,12 +1223,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Q02750</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1215,19 +1255,19 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>tcr_pt,pi3k_pt</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1239,25 +1279,25 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>PMC3625979,PMC4418530</t>
+          <t>PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -1278,7 +1318,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1303,7 +1343,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Q9NYM4</t>
+          <t>P19526</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1330,7 +1370,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1349,14 +1389,14 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC3375464</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
@@ -1377,7 +1417,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1397,12 +1437,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Q6P9H4</t>
+          <t>UAZ02439</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1433,7 +1473,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1448,14 +1488,14 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
+          <t>PMC4669187</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
@@ -1476,12 +1516,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>simple-chemical</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1496,12 +1536,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>hmdb</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>Q16552</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1526,20 +1566,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>pi_pt</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>cd4_pt,hif1alpha_pt</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>nan,nan</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
@@ -1555,14 +1595,14 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994</t>
+          <t>PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
@@ -1583,7 +1623,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1603,12 +1643,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Q16552</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1633,20 +1673,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>pip3_pt,mtorc2_pf</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>nan,nan</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>cd4_pt,hif1alpha_pt</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
@@ -1662,14 +1702,14 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578</t>
+          <t>PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
@@ -1690,7 +1730,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1710,12 +1750,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Q08881</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1742,49 +1782,33 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>akt_pf,pten_pt</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
+          <t>PMC4418530</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -1805,7 +1829,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1825,12 +1849,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P06127</t>
+          <t>CD3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1857,12 +1881,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -1871,19 +1895,27 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC5193405,PMC5193405</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -1904,7 +1936,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1924,12 +1956,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P46934</t>
+          <t>Q16543</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1956,12 +1988,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -1970,19 +2002,27 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>PMC4418530</t>
+          <t>PMC5193405,PMC5193405</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
@@ -2003,7 +2043,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2028,7 +2068,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P60484</t>
+          <t>P01730</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2055,7 +2095,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>mek_pf,pi_pt,foxo1_pt,mek1_pt</t>
+          <t>itk_pt,ck2_pt,tbk1_pt,bcl2l11_gene</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2067,37 +2107,37 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi_pt,ck2_pt</t>
+          <t>akt_pf,tcr_pt,itk_pt,akt_pt,tbk1_pt</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+          <t>nan,nan,nan,nan,nan</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>,,,,,,,,,,,,</t>
+          <t>,,,,,,,,</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>,,,,,,,,,,,,</t>
+          <t>,,,,,,,,</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3625979,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4496363,PMC4496363,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
@@ -2118,7 +2158,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>foxo3a_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2143,7 +2183,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>O43524</t>
+          <t>Q13153</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2168,43 +2208,51 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bim_pt</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>foxo_pf,akt_pt</t>
+          <t>sipak1_pt,mtor_pt,pi3k_pt</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan,nan,nan</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,,,,,,</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>,,,,,,,</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4496363</t>
+          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>foxo3a_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
@@ -2225,7 +2273,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2245,12 +2293,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>Q6P9H4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2275,21 +2323,13 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>tcr_pt,pi_pt</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2299,27 +2339,19 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530,PMC4418530</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
@@ -2340,7 +2372,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2360,12 +2392,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>P42336</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2392,7 +2424,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2411,14 +2443,14 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
@@ -2439,7 +2471,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2464,7 +2496,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P01730</t>
+          <t>P16410</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2491,49 +2523,33 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>akt_pt,tcr_pt,itk_pt,akt_pf,tbk1_pt</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>,,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>,,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
@@ -2554,12 +2570,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2574,12 +2590,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P25445</t>
+          <t>p38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2606,7 +2622,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2625,14 +2641,14 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr"/>
@@ -2653,7 +2669,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2678,7 +2694,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P36507</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2703,20 +2719,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>iqgap1_pt</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -2724,14 +2740,14 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr"/>
@@ -2752,7 +2768,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2772,12 +2788,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>UAZ02655</t>
+          <t>P06127</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2804,7 +2820,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2823,14 +2839,14 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -2851,7 +2867,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2871,12 +2887,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CD3</t>
+          <t>P36507</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2901,43 +2917,35 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>bcl2_pt</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>iqgap1_pt</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -2958,7 +2966,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2983,7 +2991,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Q14624</t>
+          <t>Q9NYM4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3010,7 +3018,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3029,14 +3037,14 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
@@ -3057,7 +3065,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3082,7 +3090,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>P01106</t>
+          <t>P25445</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3107,20 +3115,20 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>fasl_pt</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>itk_pt</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -3128,14 +3136,14 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
@@ -3156,7 +3164,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cd69_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3181,7 +3189,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Q07108</t>
+          <t>Q02750</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3208,7 +3216,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3218,23 +3226,39 @@
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC3625979,PMC4418530</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>cd69_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr"/>
@@ -3255,7 +3279,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3280,7 +3304,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>P40313</t>
+          <t>Q08881</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3305,35 +3329,51 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>nan,nan,nan,nan</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>akt_pt,pten_pt</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>,,,,,</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
@@ -3354,12 +3394,12 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Complex</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3374,12 +3414,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Q6R327</t>
+          <t>P40313</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3404,16 +3444,8 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -3428,27 +3460,19 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -3469,7 +3493,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3489,12 +3513,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>UAZ02439</t>
+          <t>O43524</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3519,35 +3543,51 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>foxo3_pt</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>foxo_pf,akt_pf</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
+          <t>PMC3375464,PMC4487994,PMC4496363</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
@@ -3568,7 +3608,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3593,7 +3633,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>UAZ03334</t>
+          <t>UAZ02468</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3620,7 +3660,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3639,14 +3679,14 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
@@ -3667,12 +3707,12 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3687,12 +3727,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CD8</t>
+          <t>Q14624</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3719,7 +3759,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3729,39 +3769,23 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4669187</t>
+          <t>PMC4669187</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -3782,7 +3806,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3802,12 +3826,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Q53GL0</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3832,43 +3856,35 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>erk_pf,cd5_pt,tcr_pt</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>itk_pt</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405,PMC4418530</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3889,7 +3905,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>cd69_pt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3914,7 +3930,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Q16543</t>
+          <t>Q07108</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3941,12 +3957,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -3955,27 +3971,19 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>cd69_pt</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -3996,7 +4004,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4021,7 +4029,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>CD8</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4048,49 +4056,49 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt,mtorc2_pf</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
+          <t>,</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363,PMC4418530</t>
+          <t>PMC3375464,PMC4669187</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
@@ -4111,7 +4119,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4131,12 +4139,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>Q9UHD2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4163,12 +4171,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>akt_pf,mtorc1_pt</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>nan,nan,nan</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
@@ -4177,19 +4185,27 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>PMC4418530</t>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr"/>
@@ -4210,7 +4226,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4235,7 +4251,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>UAZ02468</t>
+          <t>UAZ02655</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4262,7 +4278,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4281,14 +4297,14 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -4309,7 +4325,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4329,12 +4345,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>Q12778</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4361,7 +4377,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4371,23 +4387,39 @@
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>nan,nan</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>,,</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr"/>
@@ -4408,12 +4440,12 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>bcl2l11_gene</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4421,11 +4453,7 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -4433,76 +4461,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Q13153</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>sipak1_pt,mtor_pt,pi_pt</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>bcl2l11_gene</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
@@ -4590,7 +4574,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4606,12 +4590,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>P10747</t>
+          <t>Q03403</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4636,7 +4620,7 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr"/>
@@ -4657,7 +4641,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bcl2l11_gene</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4673,12 +4657,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>P10747</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -4703,7 +4687,7 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>bcl2l11_gene</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr"/>
@@ -4724,7 +4708,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4740,12 +4724,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan,uniprot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Q9NZQ7</t>
+          <t>P60568</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4770,7 +4754,7 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -4858,7 +4842,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4874,12 +4858,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Q03403</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4904,7 +4888,7 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
@@ -4925,12 +4909,12 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4941,12 +4925,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>P18621</t>
+          <t>P29323</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4971,7 +4955,7 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
@@ -4992,7 +4976,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5008,12 +4992,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>Q15118</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5038,7 +5022,7 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -5059,12 +5043,12 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5080,7 +5064,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>P18621</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5105,7 +5089,7 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
@@ -5126,7 +5110,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>il2_ex_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5142,12 +5126,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>uniprot,nan</t>
+          <t>nan,uniprot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>P60568</t>
+          <t>P04235,P04234,P01850</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5172,7 +5156,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>il2_ex_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr"/>
@@ -5193,7 +5177,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5214,7 +5198,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Q92835</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5239,7 +5223,7 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr"/>
@@ -5260,7 +5244,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5281,7 +5265,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>P04637</t>
+          <t>Q9UN19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5306,7 +5290,7 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr"/>
@@ -5327,12 +5311,12 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5343,12 +5327,12 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>pfam</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PF00071</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -5373,7 +5357,7 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr"/>
@@ -5394,7 +5378,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5415,7 +5399,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Q15399</t>
+          <t>P01579</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5440,7 +5424,7 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
@@ -5461,12 +5445,12 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5482,7 +5466,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Q8N122</t>
+          <t>FOXO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5507,7 +5491,7 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr"/>
@@ -5528,12 +5512,12 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5544,12 +5528,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MEK</t>
+          <t>Q9NZQ7</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5574,7 +5558,7 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr"/>
@@ -5595,12 +5579,12 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -5611,12 +5595,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>interpro</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>P01137</t>
+          <t>UAZ03324</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5641,7 +5625,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr"/>
@@ -5662,12 +5646,12 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>hif1alpha_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5678,12 +5662,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>interpro</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Q16665</t>
+          <t>P01137</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -5708,7 +5692,7 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>hif1alpha_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr"/>
@@ -5729,12 +5713,12 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5745,12 +5729,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>uniprot,nan</t>
+          <t>pfam</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>P01850,P04235,P04234</t>
+          <t>PF00071</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -5775,7 +5759,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr"/>
@@ -5796,12 +5780,12 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5812,12 +5796,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>UAZ03324</t>
+          <t>MEK</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -5842,7 +5826,7 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr"/>
@@ -5863,12 +5847,12 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5879,12 +5863,12 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>FOXO</t>
+          <t>Q92835</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -5909,7 +5893,7 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr"/>
@@ -5930,7 +5914,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5951,7 +5935,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>P46940</t>
+          <t>P48023</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -5976,7 +5960,7 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr"/>
@@ -5997,7 +5981,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>pi3k_pt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6013,12 +5997,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be,nan</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>P48023</t>
+          <t>P42336</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -6043,7 +6027,7 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>pi3k_pt</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr"/>
@@ -6064,7 +6048,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>hif1alpha_pt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6085,7 +6069,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>P01579</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -6110,7 +6094,7 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>hif1alpha_pt</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
@@ -6131,12 +6115,12 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6147,12 +6131,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>P29323</t>
+          <t>P10415</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6177,7 +6161,7 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr"/>
@@ -6198,7 +6182,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6219,7 +6203,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Q15118</t>
+          <t>Q9BZS1</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6244,7 +6228,7 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr"/>
@@ -6265,7 +6249,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6286,7 +6270,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Q9UN19</t>
+          <t>Q15399</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6311,7 +6295,7 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr"/>
@@ -6332,7 +6316,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6348,12 +6332,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Q9BZS1</t>
+          <t>Q8N122</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -6378,7 +6362,7 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr"/>
@@ -6399,7 +6383,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6420,7 +6404,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>P10415</t>
+          <t>P46940</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -6445,7 +6429,7 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>

--- a/examples/models/MachineReadingOuput_model.xlsx
+++ b/examples/models/MachineReadingOuput_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,149 +596,126 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>State List 2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Const OFF</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Const ON</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Increment</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Spontaneous</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Balancing</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Delay</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Update Group</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Update Rate</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Update Rank</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Complex</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Q6R327</t>
+          <t>P60484</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>mek_pf,pi3_pt,foxo1_pt,mek1_pt</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3_pt,ck2_pt</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+          <t>PMC3949578,PMC3625979,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4496363,PMC4496363,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>mek_pf,pi3_pt,foxo1_pt,mek1_pt</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3_pt,ck2_pt</t>
+        </is>
+      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr"/>
@@ -754,98 +731,71 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>simple-chemical</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hmdb</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>Q9NYM4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>pi3k_pt</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+          <t>PMC2275380</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -861,12 +811,17 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -874,85 +829,61 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Q53GL0</t>
+          <t>Q12778</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>erk_pf,cd5_pt,tcr_pt</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+          <t>tbk1_pt</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405,PMC4418530</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>tbk1_pt</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -968,12 +899,17 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,16 +917,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -998,76 +926,44 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P60484</t>
+          <t>P16410</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>mek_pf,pi3k_pt,foxo1_pt,mek1_pt</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3k_pt,ck2_pt</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>,,,,,,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>,,,,,,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3625979,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4496363,PMC4496363,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+          <t>PMC2275380</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -1083,106 +979,79 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>simple-chemical</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>hmdb</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3k_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>pi3_pt</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3k_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>pten_pt</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>,,,,,,,,,,,,,,,,,,,,,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+          <t>PMC4487994,PMC4487994,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>pi3_pt</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1198,12 +1067,17 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1211,93 +1085,53 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>Q16552</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>tcr_pt,pi3k_pt</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>pten_pt</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>cd4_pt,hif1alpha_pt</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530,PMC4418530</t>
+          <t>PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>cd4_pt,hif1alpha_pt</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -1313,12 +1147,17 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1326,16 +1165,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -1343,44 +1174,28 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P19526</t>
+          <t>P01730</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>pten_pt</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>akt_pt,tcr_pt,itk_pt,akt_pf,tbk1_pt</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1389,14 +1204,22 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>PMC3375464</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>akt_pt,tcr_pt,itk_pt,akt_pf,tbk1_pt</t>
+        </is>
+      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
@@ -1412,12 +1235,17 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>foxo3a_pt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1425,62 +1253,34 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>UAZ02439</t>
+          <t>O43524</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>foxo_pf,akt_pt</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1488,14 +1288,18 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
+          <t>PMC3375464,PMC4496363</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>foxo_pf,akt_pt</t>
+        </is>
+      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>foxo3a_pt</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
@@ -1511,12 +1315,17 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1524,16 +1333,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -1541,68 +1342,44 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Q16552</t>
+          <t>P19526</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>cd4_pt,hif1alpha_pt</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+          <t>PMC3375464</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
@@ -1618,12 +1395,17 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1631,85 +1413,53 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>pip3_pt,mtorc2_pf</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>itk_pt</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>itk_pt</t>
+        </is>
+      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
@@ -1725,12 +1475,17 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1738,61 +1493,33 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P46934</t>
+          <t>P36507</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>tcr_pt</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>iqgap1_pt</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
@@ -1801,14 +1528,18 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>PMC4418530</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>iqgap1_pt</t>
+        </is>
+      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -1824,12 +1555,17 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1837,85 +1573,61 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CD3</t>
+          <t>Q13153</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>sipak1_pt,mtor_pt,pi3_pt</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>sipak1_pt,mtor_pt,pi3_pt</t>
+        </is>
+      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -1931,98 +1643,75 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+          <t>Complex</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Q16543</t>
+          <t>Q6R327</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
@@ -2038,12 +1727,17 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>cd69_pt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2051,16 +1745,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -2068,76 +1754,44 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P01730</t>
+          <t>Q07108</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>itk_pt,ck2_pt,tbk1_pt,bcl2l11_gene</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>sp_pt</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>akt_pf,tcr_pt,itk_pt,akt_pt,tbk1_pt</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>,,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>,,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr"/>
+          <t>PMC5193405</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>sp_pt</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>cd69_pt</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
@@ -2153,106 +1807,79 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Q13153</t>
+          <t>CD8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bim_pt</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>pten_pt</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>sipak1_pt,mtor_pt,pi3k_pt</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>,,,,,,,</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>,,,,,,,</t>
-        </is>
-      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
+          <t>PMC3375464,PMC4669187</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
@@ -2268,12 +1895,17 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2281,62 +1913,34 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Q6P9H4</t>
+          <t>UAZ02468</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>itk_pt</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2344,14 +1948,18 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr"/>
+          <t>PMC3949578</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>itk_pt</t>
+        </is>
+      </c>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
@@ -2367,12 +1975,17 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2380,61 +1993,33 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>UAZ02439</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>ship_pt</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -2443,14 +2028,18 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC4669187</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
@@ -2466,12 +2055,17 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2479,16 +2073,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -2496,44 +2082,28 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P16410</t>
+          <t>Q02750</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -2542,14 +2112,22 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
+          <t>PMC3625979,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
@@ -2565,71 +2143,48 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>p38</t>
+          <t>P25445</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>fasl_pt</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -2641,14 +2196,18 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr"/>
+          <t>PMC4487994</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>fasl_pt</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr"/>
@@ -2664,12 +2223,17 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2677,58 +2241,30 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>P42336</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>ship_pt</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -2740,14 +2276,18 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr"/>
+          <t>PMC4487994</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>ship_pt</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr"/>
@@ -2763,12 +2303,17 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2776,16 +2321,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -2793,41 +2330,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>P06127</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>p38_pf</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2839,14 +2356,18 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr"/>
+          <t>PMC3949578</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -2862,12 +2383,17 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2875,16 +2401,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -2892,45 +2410,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>P36507</t>
+          <t>P06127</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>p38_pf</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>iqgap1_pt</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -2938,14 +2436,18 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr"/>
+          <t>PMC5193405</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>p38_pf</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -2961,12 +2463,17 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2974,58 +2481,26 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Q9NYM4</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -3037,14 +2512,18 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr"/>
+          <t>PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
@@ -3060,12 +2539,17 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3073,16 +2557,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -3090,44 +2566,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>P25445</t>
+          <t>Q6P9H4</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>fasl_pt</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
@@ -3136,14 +2592,18 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
@@ -3159,12 +2619,17 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3172,16 +2637,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -3189,76 +2646,44 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Q02750</t>
+          <t>Q14624</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>PMC3625979,PMC4418530</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr"/>
+          <t>PMC4669187</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr"/>
@@ -3274,12 +2699,17 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3287,93 +2717,53 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Q08881</t>
+          <t>UAZ03334</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>nan,nan,nan,nan</t>
-        </is>
-      </c>
+          <t>foxo3_pt</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>akt_pt,pten_pt</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>,,,,,</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr"/>
+          <t>PMC4487994</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>foxo3_pt</t>
+        </is>
+      </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
@@ -3389,12 +2779,17 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3402,62 +2797,30 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>P40313</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>pip3_pt</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -3465,14 +2828,18 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr"/>
+          <t>PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>pip3_pt</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -3488,12 +2855,17 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3501,93 +2873,53 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>O43524</t>
+          <t>Q53GL0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>erk_pf,cd5_pt,tcr_pt</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>foxo_pf,akt_pf</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4487994,PMC4496363</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr"/>
+          <t>PMC5193405,PMC5193405,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>erk_pf,cd5_pt,tcr_pt</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
@@ -3603,71 +2935,48 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>UAZ02468</t>
+          <t>p38</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>itk_pt</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>cd5_pt</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -3679,14 +2988,18 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr"/>
+          <t>PMC5193405</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>cd5_pt</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
@@ -3702,12 +3015,17 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3715,58 +3033,26 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Q14624</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>tcr_pt,pi3_pt</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -3778,14 +3064,18 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr"/>
+          <t>PMC4418530,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>tcr_pt,pi3_pt</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -3801,12 +3091,17 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3814,62 +3109,34 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>P01106</t>
+          <t>CD3</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>bcl2_pt</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>itk_pt</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -3877,14 +3144,18 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr"/>
+          <t>PMC5193405,PMC5193405</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>bcl2_pt</t>
+        </is>
+      </c>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3900,12 +3171,17 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cd69_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3913,16 +3189,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -3930,41 +3198,21 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Q07108</t>
+          <t>Q9UHD2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>sp_pt</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>akt_pt,mtorc1_pt</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -3976,14 +3224,18 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr"/>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>akt_pt,mtorc1_pt</t>
+        </is>
+      </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>cd69_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -3999,12 +3251,17 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4012,16 +3269,8 @@
           <t>family</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>be</t>
@@ -4029,76 +3278,52 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CD8</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>pten_pt</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt,mtorc2_pf</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4669187</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
+          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt,mtorc2_pf</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
+        </is>
+      </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
@@ -4114,12 +3339,17 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4127,16 +3357,8 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t>uniprot</t>
@@ -4144,68 +3366,44 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Q9UHD2</t>
+          <t>Q16543</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>akt_pf,mtorc1_pt</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>nan,nan,nan</t>
-        </is>
-      </c>
+          <t>ck2_pt</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr"/>
+          <t>PMC5193405,PMC5193405</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>ck2_pt</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr"/>
@@ -4221,12 +3419,17 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4234,61 +3437,37 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>UAZ02655</t>
+          <t>Q08881</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>erk_pf</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>akt_pf,pten_pt</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -4297,14 +3476,22 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>akt_pf,pten_pt</t>
+        </is>
+      </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -4320,12 +3507,17 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4333,93 +3525,53 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Q12778</t>
+          <t>UAZ02655</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>erk_pf</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>nan,nan</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>,,</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr"/>
+          <t>PMC3625979</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>erk_pf</t>
+        </is>
+      </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr"/>
@@ -4435,24 +3587,25 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bcl2l11_gene</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gene</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
@@ -4461,7 +3614,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>P40313</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4474,19 +3627,31 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>PMC2275380</t>
+        </is>
+      </c>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>bcl2l11_gene</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
@@ -4502,9 +3667,14 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>mtor_pt</t>
@@ -4515,11 +3685,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
@@ -4569,12 +3735,17 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4582,20 +3753,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>,uniprot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Q03403</t>
+          <t>P01850,P04235,P04234</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -4620,7 +3787,7 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr"/>
@@ -4636,33 +3803,34 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>P10747</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -4687,7 +3855,7 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr"/>
@@ -4703,12 +3871,17 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>il2_ex_pt</t>
+          <t>pi3_pt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4716,20 +3889,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>nan,uniprot</t>
+          <t>,be</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>P60568</t>
+          <t>P42336</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -4754,7 +3923,7 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>il2_ex_pt</t>
+          <t>pi3_pt</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -4770,12 +3939,17 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>chk1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4783,11 +3957,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
@@ -4796,7 +3966,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>O14757</t>
+          <t>Q9BZS1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -4821,7 +3991,7 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>chk1_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr"/>
@@ -4837,12 +4007,17 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4850,20 +4025,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>,uniprot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>P60568</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4888,7 +4059,7 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
@@ -4904,33 +4075,34 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>P29323</t>
+          <t>Q15118</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4955,7 +4127,7 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>erk_pf</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
@@ -4971,12 +4143,17 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>chk1_pt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4984,11 +4161,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
@@ -4997,7 +4170,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Q15118</t>
+          <t>O14757</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -5022,7 +4195,7 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>chk1_pt</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -5038,33 +4211,34 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>interpro</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>P18621</t>
+          <t>P01137</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -5089,7 +4263,7 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
@@ -5105,12 +4279,17 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5118,20 +4297,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>nan,uniprot</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>P04235,P04234,P01850</t>
+          <t>P48023</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -5156,7 +4331,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr"/>
@@ -5172,12 +4347,17 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5185,11 +4365,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
@@ -5198,7 +4374,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>P04637</t>
+          <t>P18621</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -5223,7 +4399,7 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr"/>
@@ -5239,33 +4415,34 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Q9UN19</t>
+          <t>FOXO</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -5290,7 +4467,7 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr"/>
@@ -5306,12 +4483,17 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5319,20 +4501,12 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>P10747</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -5357,7 +4531,7 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr"/>
@@ -5373,12 +4547,17 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>bcl2l11_gene</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5386,11 +4565,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
@@ -5399,7 +4574,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>P01579</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -5424,7 +4599,7 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>bcl2l11_gene</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
@@ -5440,33 +4615,34 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FOXO</t>
+          <t>UAZ03324</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -5491,7 +4667,7 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr"/>
@@ -5507,33 +4683,34 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>pfam</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Q9NZQ7</t>
+          <t>PF00071</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -5558,7 +4735,7 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr"/>
@@ -5574,12 +4751,17 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5587,20 +4769,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>UAZ03324</t>
+          <t>P10415</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -5625,7 +4803,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr"/>
@@ -5641,33 +4819,34 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>interpro</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>P01137</t>
+          <t>Q92835</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -5692,7 +4871,7 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>ship_pt</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr"/>
@@ -5708,33 +4887,34 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>pfam</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>PF00071</t>
+          <t>P46940</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -5759,7 +4939,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr"/>
@@ -5775,33 +4955,30 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>MEK</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -5826,7 +5003,7 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr"/>
@@ -5842,12 +5019,17 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5855,11 +5037,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
@@ -5868,7 +5046,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Q92835</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -5893,7 +5071,7 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr"/>
@@ -5909,33 +5087,34 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>P48023</t>
+          <t>MEK</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -5960,7 +5139,7 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr"/>
@@ -5976,12 +5155,17 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pi3k_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5989,20 +5173,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>be,nan</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>Q8N122</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -6027,7 +5207,7 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>pi3k_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr"/>
@@ -6043,9 +5223,14 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>hif1alpha_pt</t>
@@ -6056,11 +5241,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
@@ -6110,12 +5291,17 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6123,11 +5309,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
@@ -6136,7 +5318,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>P10415</t>
+          <t>Q03403</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -6161,7 +5343,7 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr"/>
@@ -6177,12 +5359,17 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6190,11 +5377,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
@@ -6203,7 +5386,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Q9BZS1</t>
+          <t>Q15399</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -6228,7 +5411,7 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr"/>
@@ -6244,12 +5427,17 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6257,11 +5445,7 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
@@ -6270,7 +5454,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Q15399</t>
+          <t>Q9UN19</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -6295,7 +5479,7 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr"/>
@@ -6311,12 +5495,17 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6324,20 +5513,16 @@
           <t>protein</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Q8N122</t>
+          <t>P01579</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -6362,7 +5547,7 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr"/>
@@ -6378,33 +5563,34 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>P46940</t>
+          <t>P29323</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -6429,7 +5615,7 @@
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
@@ -6445,6 +5631,75 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>uniprot</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Q9NZQ7</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/models/MachineReadingOuput_model.xlsx
+++ b/examples/models/MachineReadingOuput_model.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP68"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,50 +596,45 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>State List 2</t>
+          <t>Const OFF</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Const OFF</t>
+          <t>Const ON</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Const ON</t>
+          <t>Increment</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Increment</t>
+          <t>Spontaneous</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Spontaneous</t>
+          <t>Balancing</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Balancing</t>
+          <t>Delay</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Delay</t>
+          <t>Update Group</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Update Group</t>
+          <t>Update Rate</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Update Rate</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Update Rank</t>
         </is>
@@ -653,24 +648,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P60484</t>
+          <t>p38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -681,17 +676,13 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>mek_pf,pi3_pt,foxo1_pt,mek1_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3_pt,ck2_pt</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -700,22 +691,18 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3625979,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4496363,PMC4496363,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>mek_pf,pi3_pt,foxo1_pt,mek1_pt</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi3_pt,ck2_pt</t>
-        </is>
-      </c>
+          <t>cd5_pt</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr"/>
@@ -731,7 +718,6 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -741,7 +727,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>cd69_pt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -758,7 +744,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Q9NYM4</t>
+          <t>Q07108</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -769,7 +755,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -784,18 +770,18 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>gpr83_pt</t>
+          <t>cd69_pt</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -811,7 +797,6 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,7 +806,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,7 +823,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Q12778</t>
+          <t>P25445</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -849,17 +834,13 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -868,22 +849,18 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
+          <t>fasl_pt</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>foxo1_pt</t>
+          <t>fas_pt</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -899,7 +876,6 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -909,24 +885,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>Complex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P16410</t>
+          <t>Q6R327</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -937,13 +909,17 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -952,18 +928,22 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>PMC2275380</t>
+          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr"/>
+          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>akt_pt</t>
+        </is>
+      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>ctla4_pt</t>
+          <t>mtorc2_pf</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -979,7 +959,6 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -989,24 +968,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>simple-chemical</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>hmdb</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1017,17 +996,13 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>pi3_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>pten_pt</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1036,22 +1011,18 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994,PMC4418530</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>pi3_pt</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>pten_pt</t>
-        </is>
-      </c>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>cd25_pt</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr"/>
@@ -1067,7 +1038,6 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1077,7 +1047,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1087,14 +1057,10 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Q16552</t>
+          <t>P46934</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1103,15 +1069,15 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>cd4_pt,hif1alpha_pt</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -1120,18 +1086,18 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>cd4_pt,hif1alpha_pt</t>
-        </is>
-      </c>
+          <t>PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>il17a_pt</t>
+          <t>nedd4_pt</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr"/>
@@ -1147,7 +1113,6 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1157,7 +1122,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1174,7 +1139,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P01730</t>
+          <t>P16410</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1185,17 +1150,13 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>akt_pt,tcr_pt,itk_pt,akt_pf,tbk1_pt</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1204,22 +1165,18 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>akt_pt,tcr_pt,itk_pt,akt_pf,tbk1_pt</t>
-        </is>
-      </c>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>cd4_pt</t>
+          <t>ctla4_pt</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr"/>
@@ -1235,7 +1192,6 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1245,7 +1201,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>foxo3a_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1257,12 +1213,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>O43524</t>
+          <t>CD3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1271,15 +1227,15 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>bcl2_pt</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>foxo_pf,akt_pt</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1288,18 +1244,18 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4496363</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>foxo_pf,akt_pt</t>
-        </is>
-      </c>
+          <t>PMC5193405,PMC5193405</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>bcl2_pt</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>foxo3a_pt</t>
+          <t>cd3_pt</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr"/>
@@ -1315,7 +1271,6 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1325,7 +1280,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1337,12 +1292,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P19526</t>
+          <t>Q53GL0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1353,7 +1308,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>erk_pf,cd5_pt,tcr_pt</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1368,18 +1323,18 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>PMC3375464</t>
+          <t>PMC5193405,PMC5193405,PMC4418530</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>erk_pf,cd5_pt,tcr_pt</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>hsc_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr"/>
@@ -1395,7 +1350,6 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1405,7 +1359,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1422,7 +1376,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P01106</t>
+          <t>Q9UHD2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1431,15 +1385,15 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>akt_pf,mtorc1_pt</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>itk_pt</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1448,18 +1402,18 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>itk_pt</t>
-        </is>
-      </c>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>akt_pf,mtorc1_pt</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>myc_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr"/>
@@ -1475,7 +1429,6 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1485,7 +1438,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1502,7 +1455,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P36507</t>
+          <t>O43524</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1511,13 +1464,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>foxo3_pt</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>foxo_pf,akt_pf</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1528,18 +1485,22 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr"/>
+          <t>PMC3375464,PMC4487994,PMC4496363</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>foxo3_pt</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>foxo_pf,akt_pf</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>mek2_pt</t>
+          <t>foxo3_pt</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr"/>
@@ -1555,7 +1516,6 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1565,7 +1525,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1582,7 +1542,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Q13153</t>
+          <t>P01106</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1591,17 +1551,13 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>sipak1_pt,mtor_pt,pi3_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1612,22 +1568,18 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
-        </is>
-      </c>
+          <t>PMC3949578</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>sipak1_pt,mtor_pt,pi3_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>pak1_pt</t>
+          <t>myc_pt</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr"/>
@@ -1643,7 +1595,6 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1653,20 +1604,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Complex</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>uniprot</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Q6R327</t>
+          <t>Q6P9H4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1675,11 +1630,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1696,14 +1647,10 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>tcr_pt,mtorc2_pf,cd28_pt,il2_ex_pt,il2_r_pt</t>
-        </is>
-      </c>
+          <t>PMC3625979</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
           <t>akt_pf</t>
@@ -1711,7 +1658,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>mtorc2_pf</t>
+          <t>magi1_pt</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr"/>
@@ -1727,7 +1674,6 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1737,7 +1683,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cd69_pt</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1754,7 +1700,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Q07108</t>
+          <t>Q14624</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1765,7 +1711,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1780,18 +1726,18 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC4669187</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>cd69_pt</t>
+          <t>gp120_pt</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr"/>
@@ -1807,7 +1753,6 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1817,24 +1762,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CD8</t>
+          <t>UAZ02655</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1845,17 +1790,13 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>pten_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1864,22 +1805,18 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>PMC3375464,PMC4669187</t>
+          <t>PMC3625979</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>pten_pt</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
+          <t>erk_pf</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>cd8_pf</t>
+          <t>s5b_pt</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr"/>
@@ -1895,7 +1832,6 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1905,7 +1841,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1917,12 +1853,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>UAZ02468</t>
+          <t>Q16543</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1933,7 +1869,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1948,18 +1884,18 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC5193405,PMC5193405</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>ck2_pt</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>th17_pt</t>
+          <t>cdc37_pt</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr"/>
@@ -1975,7 +1911,6 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1985,7 +1920,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1997,12 +1932,12 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>UAZ02439</t>
+          <t>Q16552</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2017,7 +1952,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>cd4_pt,hif1alpha_pt</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2028,18 +1963,18 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
+          <t>PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>pdl1_pt</t>
+          <t>cd4_pt,hif1alpha_pt</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>treg_pt</t>
+          <t>il17a_pt</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr"/>
@@ -2055,7 +1990,6 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2065,24 +1999,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>simple-chemical</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>hmdb</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Q02750</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2093,17 +2027,13 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -2112,22 +2042,18 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>PMC3625979,PMC4418530</t>
+          <t>PMC4487994,PMC4487994</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
+          <t>pi_pt</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>mek1_pt</t>
+          <t>pip3</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr"/>
@@ -2143,7 +2069,6 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2153,7 +2078,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2170,7 +2095,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P25445</t>
+          <t>Q12778</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2181,13 +2106,17 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>tbk1_pt</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -2196,18 +2125,22 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC4302769,PMC4302769,PMC4302769</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr"/>
+          <t>tbk1_pt</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>fas_pt</t>
+          <t>foxo1_pt</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr"/>
@@ -2223,7 +2156,6 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2233,12 +2165,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -2250,7 +2182,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>CD8</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2261,13 +2193,17 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -2276,18 +2212,22 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC3375464,PMC4669187</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>ship_pt</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
+          <t>pten_pt</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>pi_pt</t>
+          <t>cd8_pf</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr"/>
@@ -2303,7 +2243,6 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2313,7 +2252,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2325,12 +2264,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>P42336</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2341,7 +2280,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ship1_pt</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -2356,18 +2295,18 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>PMC3949578</t>
+          <t>PMC4487994</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>ship1_pt</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>cd25_pt</t>
+          <t>pi_pt</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr"/>
@@ -2383,7 +2322,6 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2393,7 +2331,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2405,12 +2343,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>P06127</t>
+          <t>UAZ02468</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -2421,7 +2359,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -2436,18 +2374,18 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC3949578</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>th17_pt</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr"/>
@@ -2463,7 +2401,6 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2473,7 +2410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2483,10 +2420,14 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>uniprot</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>P46934</t>
+          <t>P19526</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -2497,7 +2438,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2512,18 +2453,18 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>PMC4418530</t>
+          <t>PMC3375464</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>nedd4_pt</t>
+          <t>hsc_pt</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr"/>
@@ -2539,7 +2480,6 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2549,7 +2489,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2566,7 +2506,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Q6P9H4</t>
+          <t>P60484</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2575,13 +2515,17 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>mek_pf,pi_pt,foxo1_pt,mek1_pt</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi_pt,ck2_pt</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -2592,18 +2536,22 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr"/>
+          <t>PMC3949578,PMC3625979,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4712330,PMC4496363,PMC4496363,PMC4418530,PMC4418530,PMC4418530,PMC4418530</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>mek_pf,pi_pt,foxo1_pt,mek1_pt</t>
+        </is>
+      </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>tcr_pt,ras_pf,nedd4_pt,p53_pt,pi_pt,ck2_pt</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>magi1_pt</t>
+          <t>pten_pt</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr"/>
@@ -2619,7 +2567,6 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2629,7 +2576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2646,7 +2593,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Q14624</t>
+          <t>P36507</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -2655,15 +2602,15 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>iqgap1_pt</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -2672,18 +2619,18 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>PMC4669187</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr"/>
+          <t>PMC3625979</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>iqgap1_pt</t>
+        </is>
+      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>gp120_pt</t>
+          <t>mek2_pt</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr"/>
@@ -2699,7 +2646,6 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2709,7 +2655,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2721,12 +2667,12 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>UAZ03334</t>
+          <t>Q13153</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -2737,13 +2683,17 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>sipak1_pt,mtor_pt,pi_pt</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -2752,18 +2702,22 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>PMC4487994</t>
+          <t>PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr"/>
+          <t>bam32_pt,mtorc1_pt,mtor_pt,erk_pf,bcl2l11_gene</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>sipak1_pt,mtor_pt,pi_pt</t>
+        </is>
+      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>foxo3_pt</t>
+          <t>pak1_pt</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr"/>
@@ -2779,7 +2733,6 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2789,7 +2742,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>akt_pf</t>
+          <t>pip3_pt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2802,7 +2755,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>HMDB10147</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2813,13 +2766,17 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>pip3_pt</t>
+          <t>tcr_pt,pi_pt</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -2828,18 +2785,22 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>PMC4418530</t>
+          <t>PMC4418530,PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
+          <t>tcr_pt,pi_pt</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>pten_pt</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
           <t>pip3_pt</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>akt_pf</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr"/>
@@ -2855,7 +2816,6 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2865,7 +2825,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2877,12 +2837,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>uaz</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Q53GL0</t>
+          <t>P40313</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2891,15 +2851,15 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>erk_pf,cd5_pt,tcr_pt</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
@@ -2908,18 +2868,18 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405,PMC4418530</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>erk_pf,cd5_pt,tcr_pt</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr"/>
+          <t>PMC2275380</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>ctrl_pt</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr"/>
@@ -2935,7 +2895,6 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2945,24 +2904,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>p38</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2973,7 +2928,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>pip3_pt,mtorc2_pf</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2988,18 +2943,18 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>PMC5193405</t>
+          <t>PMC4418530,PMC4418530</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>cd5_pt</t>
+          <t>pip3_pt,mtorc2_pf</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>p38_pf</t>
+          <t>akt_pt</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr"/>
@@ -3015,7 +2970,6 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3025,7 +2979,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3035,10 +2989,14 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>uniprot</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HMDB10147</t>
+          <t>P01730</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3049,13 +3007,17 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>tcr_pt,pi3_pt</t>
+          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>akt_pf,tcr_pt,itk_pt,akt_pt,tbk1_pt</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -3064,18 +3026,22 @@
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>PMC4418530,PMC4418530</t>
+          <t>PMC2275380,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC5193405,PMC4302769,PMC4302769,PMC4487994</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>tcr_pt,pi3_pt</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr"/>
+          <t>itk_pt,ck2_pt,tbk1_pt,bim_pt</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>akt_pf,tcr_pt,itk_pt,akt_pt,tbk1_pt</t>
+        </is>
+      </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>pip3</t>
+          <t>cd4_pt</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -3091,7 +3057,6 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3101,12 +3066,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -3118,7 +3083,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CD3</t>
+          <t>P31749</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3129,13 +3094,17 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi_pt,ship1_pt,ctla4_pt,pd1_pt,til_pt</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -3144,18 +3113,22 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
+          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr"/>
+          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi_pt,ship1_pt,ctla4_pt,pd1_pt,til_pt</t>
+        </is>
+      </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>cd3_pt</t>
+          <t>akt_pf</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -3171,7 +3144,6 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3181,7 +3153,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3198,7 +3170,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Q9UHD2</t>
+          <t>Q02750</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3209,13 +3181,17 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>akt_pt,mtorc1_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -3224,18 +3200,22 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>PMC4302769,PMC4302769,PMC4302769</t>
+          <t>PMC3625979,PMC4418530</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>akt_pt,mtorc1_pt</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr"/>
+          <t>tcr_pt</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>akt_pf</t>
+        </is>
+      </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>tbk1_pt</t>
+          <t>mek1_pt</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr"/>
@@ -3251,7 +3231,6 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3261,24 +3240,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>P31749</t>
+          <t>P06127</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -3289,17 +3268,13 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt,mtorc2_pf</t>
+          <t>p38_pf</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -3308,22 +3283,18 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>PMC2275380,PMC3375464,PMC3625979,PMC3625979,PMC5193405,PMC4712330,PMC4712330,PMC4712330,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4302769,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4487994,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4550078,PMC4496363,PMC4496363,PMC4496363,PMC4418530</t>
+          <t>PMC5193405</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>tgfbeta_pf,chk1_pt,ck2_pt,pten_pt,pi3_pt,tbk1_pt,mtor_pt,pdk1_pt,ifngamma_pt,mtorc2_pf</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>mek1_pt,pten_pt,tcr_pt,tbk1_pt,pi3_pt,ship_pt,ctla4_pt,pd1_pt,til_pt</t>
-        </is>
-      </c>
+          <t>p38_pf</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>akt_pt</t>
+          <t>cd5_pt</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr"/>
@@ -3339,7 +3310,6 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3349,7 +3319,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3366,7 +3336,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Q16543</t>
+          <t>Q08881</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -3377,13 +3347,17 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
+          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>akt_pt,pten_pt</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -3392,18 +3366,22 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>PMC5193405,PMC5193405</t>
+          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>ck2_pt</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr"/>
+          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>akt_pt,pten_pt</t>
+        </is>
+      </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>cdc37_pt</t>
+          <t>itk_pt</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr"/>
@@ -3419,7 +3397,6 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3429,7 +3406,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3446,7 +3423,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Q08881</t>
+          <t>Q9NYM4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -3457,17 +3434,13 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>akt_pf,pten_pt</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -3476,22 +3449,18 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578,PMC3949578</t>
+          <t>PMC2275380</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>foxp3_pt,il2_ex_pt,tcr_pt</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>akt_pf,pten_pt</t>
-        </is>
-      </c>
+          <t>foxp3_pt</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>itk_pt</t>
+          <t>gpr83_pt</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr"/>
@@ -3507,7 +3476,6 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3517,7 +3485,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3534,7 +3502,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>UAZ02655</t>
+          <t>UAZ02439</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -3543,15 +3511,15 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>erk_pf</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -3560,18 +3528,18 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>PMC3625979</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>erk_pf</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr"/>
+          <t>PMC4669187</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>pdl1_pt</t>
+        </is>
+      </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>s5b_pt</t>
+          <t>treg_pt</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr"/>
@@ -3587,7 +3555,6 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3597,7 +3564,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3614,7 +3581,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>P40313</t>
+          <t>P18621</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -3627,31 +3594,19 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>PMC2275380</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>akt_pt</t>
-        </is>
-      </c>
+      <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>ctrl_pt</t>
+          <t>pd1_pt</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr"/>
@@ -3667,7 +3622,6 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3677,7 +3631,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mtor_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3694,7 +3648,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>P42345</t>
+          <t>P01579</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -3719,7 +3673,7 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>mtor_pt</t>
+          <t>ifngamma_pt</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr"/>
@@ -3735,7 +3689,6 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3745,7 +3698,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3757,12 +3710,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>,uniprot</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>P01850,P04235,P04234</t>
+          <t>P10415</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -3787,7 +3740,7 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>tcr_pt</t>
+          <t>bcl2_pt</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr"/>
@@ -3803,7 +3756,6 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3813,24 +3765,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gene</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>,uniprot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>P60568</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -3855,7 +3807,7 @@
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>bim_pt</t>
+          <t>il2_ex_pt</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr"/>
@@ -3871,7 +3823,6 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3881,7 +3832,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pi3_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3893,12 +3844,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>,be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>P42336</t>
+          <t>Q15399</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -3923,7 +3874,7 @@
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>pi3_pt</t>
+          <t>til_pt</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -3939,7 +3890,6 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3949,7 +3899,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>hif1alpha_pt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3966,7 +3916,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Q9BZS1</t>
+          <t>Q16665</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -3991,7 +3941,7 @@
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>foxp3_pt</t>
+          <t>hif1alpha_pt</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr"/>
@@ -4007,7 +3957,6 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4017,24 +3966,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>il2_ex_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>,uniprot</t>
+          <t>interpro</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>P60568</t>
+          <t>P01137</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -4059,7 +4008,7 @@
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>il2_ex_pt</t>
+          <t>tgfbeta_pf</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr"/>
@@ -4075,7 +4024,6 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4085,7 +4033,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4097,12 +4045,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>,uniprot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Q15118</t>
+          <t>P04234,P04235,P01850</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -4127,7 +4075,7 @@
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>pdk1_pt</t>
+          <t>tcr_pt</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr"/>
@@ -4143,7 +4091,6 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4153,7 +4100,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>chk1_pt</t>
+          <t>ship1_pt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4170,7 +4117,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>O14757</t>
+          <t>Q92835</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -4195,7 +4142,7 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>chk1_pt</t>
+          <t>ship1_pt</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -4211,7 +4158,6 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4221,24 +4167,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>interpro</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>P01137</t>
+          <t>P48023</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -4263,7 +4209,7 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>tgfbeta_pf</t>
+          <t>fasl_pt</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
@@ -4279,7 +4225,6 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4289,24 +4234,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>P48023</t>
+          <t>FOXO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -4331,7 +4276,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>fasl_pt</t>
+          <t>foxo_pf</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr"/>
@@ -4347,7 +4292,6 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4357,12 +4301,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>gene</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -4374,7 +4318,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>P18621</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -4399,7 +4343,7 @@
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>pd1_pt</t>
+          <t>bim_pt</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr"/>
@@ -4415,7 +4359,6 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4425,24 +4368,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uaz</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>FOXO</t>
+          <t>UAZ03324</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -4467,7 +4410,7 @@
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>foxo_pf</t>
+          <t>sipak1_pt</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr"/>
@@ -4483,7 +4426,6 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4493,7 +4435,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4503,10 +4445,14 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>uniprot</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>P10747</t>
+          <t>Q15118</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -4531,7 +4477,7 @@
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>cd28_pt</t>
+          <t>pdk1_pt</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr"/>
@@ -4547,7 +4493,6 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4557,7 +4502,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bcl2l11_gene</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4567,14 +4512,10 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>O43521</t>
+          <t>P01589</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -4599,7 +4540,7 @@
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>bcl2l11_gene</t>
+          <t>il2_r_pt</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr"/>
@@ -4615,7 +4556,6 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4625,7 +4565,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4635,14 +4575,10 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>uaz</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>UAZ03324</t>
+          <t>P10747</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -4667,7 +4603,7 @@
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>sipak1_pt</t>
+          <t>cd28_pt</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr"/>
@@ -4683,7 +4619,6 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4693,24 +4628,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>pfam</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PF00071</t>
+          <t>Q9NZQ7</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -4735,7 +4670,7 @@
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>ras_pf</t>
+          <t>pdl1_pt</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr"/>
@@ -4751,7 +4686,6 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4761,7 +4695,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4778,7 +4712,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>P10415</t>
+          <t>Q9UN19</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -4803,7 +4737,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>bcl2_pt</t>
+          <t>bam32_pt</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr"/>
@@ -4819,7 +4753,6 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
-      <c r="AP55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4829,7 +4762,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4846,7 +4779,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Q92835</t>
+          <t>P46940</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -4871,7 +4804,7 @@
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>ship_pt</t>
+          <t>iqgap1_pt</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr"/>
@@ -4887,7 +4820,6 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4897,7 +4829,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>mtor_pt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4914,7 +4846,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>P46940</t>
+          <t>P42345</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -4939,7 +4871,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>iqgap1_pt</t>
+          <t>mtor_pt</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr"/>
@@ -4955,7 +4887,6 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4965,20 +4896,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>P01589</t>
+          <t>P29323</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -5003,7 +4938,7 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>il2_r_pt</t>
+          <t>erk_pf</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr"/>
@@ -5019,7 +4954,6 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5029,7 +4963,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5046,7 +4980,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>P04637</t>
+          <t>Q03403</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -5071,7 +5005,7 @@
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>p53_pt</t>
+          <t>sp_pt</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr"/>
@@ -5087,7 +5021,6 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5097,24 +5030,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>protein</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>uniprot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>MEK</t>
+          <t>P04637</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -5139,7 +5072,7 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>mek_pf</t>
+          <t>p53_pt</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr"/>
@@ -5155,7 +5088,6 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5165,12 +5097,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -5182,7 +5114,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Q8N122</t>
+          <t>MEK</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -5207,7 +5139,7 @@
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>mtorc1_pt</t>
+          <t>mek_pf</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr"/>
@@ -5223,7 +5155,6 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5233,7 +5164,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>hif1alpha_pt</t>
+          <t>chk1_pt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5250,7 +5181,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Q16665</t>
+          <t>O14757</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -5275,7 +5206,7 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>hif1alpha_pt</t>
+          <t>chk1_pt</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr"/>
@@ -5291,7 +5222,6 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5301,7 +5231,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>bcl2l11_gene</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -5318,7 +5248,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Q03403</t>
+          <t>O43521</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -5343,7 +5273,7 @@
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>sp_pt</t>
+          <t>bcl2l11_gene</t>
         </is>
       </c>
       <c r="AC63" t="inlineStr"/>
@@ -5359,7 +5289,6 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5369,7 +5298,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5381,12 +5310,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>be</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Q15399</t>
+          <t>Q8N122</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -5411,7 +5340,7 @@
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>til_pt</t>
+          <t>mtorc1_pt</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr"/>
@@ -5427,7 +5356,6 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
-      <c r="AP64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5437,24 +5365,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>family</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>uniprot</t>
+          <t>pfam</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Q9UN19</t>
+          <t>PF00071</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -5479,7 +5407,7 @@
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>bam32_pt</t>
+          <t>ras_pf</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr"/>
@@ -5495,7 +5423,6 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5505,7 +5432,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5522,7 +5449,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>P01579</t>
+          <t>Q9BZS1</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -5547,7 +5474,7 @@
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>ifngamma_pt</t>
+          <t>foxp3_pt</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr"/>
@@ -5563,143 +5490,6 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>erk_pf</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>P29323</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>erk_pf</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>uniprot</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Q9NZQ7</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>pdl1_pt</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
-      <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr"/>
-      <c r="AP68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
